--- a/week 5/ریاضی/Skale(V3.6).xlsx
+++ b/week 5/ریاضی/Skale(V3.6).xlsx
@@ -1452,8 +1452,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AMJ45"/>
   <sheetViews>
-    <sheetView topLeftCell="A13" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D39" sqref="D39"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="I26" sqref="I26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.09765625" defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -2240,11 +2240,11 @@
       </c>
       <c r="H25" s="43"/>
       <c r="I25" s="42">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="J25" s="43"/>
       <c r="K25" s="42">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L25" s="43"/>
     </row>
@@ -4225,7 +4225,7 @@
       </c>
       <c r="I25" s="10">
         <f>IF(گوگل!I25=کلید!H$2,3,IF(گوگل!I25="",0,-1))</f>
-        <v>-1</v>
+        <v>3</v>
       </c>
       <c r="J25" s="10">
         <f>IF(گوگل!J25=کلید!I$2,3,IF(گوگل!J25="",0,-1))</f>
@@ -4233,7 +4233,7 @@
       </c>
       <c r="K25" s="10">
         <f>IF(گوگل!K25=کلید!J$2,3,IF(گوگل!K25="",0,-1))</f>
-        <v>-1</v>
+        <v>3</v>
       </c>
       <c r="L25" s="10">
         <f>IF(گوگل!L25=کلید!K$2,3,IF(گوگل!L25="",0,-1))</f>
@@ -4241,7 +4241,7 @@
       </c>
       <c r="M25" s="11">
         <f t="shared" si="0"/>
-        <v>33.333333333333329</v>
+        <v>60</v>
       </c>
     </row>
     <row r="26" spans="1:13" ht="18.600000000000001" x14ac:dyDescent="0.25">
@@ -6590,7 +6590,7 @@
     <row r="8" spans="1:15" ht="18.600000000000001" x14ac:dyDescent="0.6">
       <c r="A8" s="24">
         <f t="shared" si="0"/>
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B8" s="28" t="s">
         <v>43</v>
@@ -6650,7 +6650,7 @@
     <row r="9" spans="1:15" ht="18.600000000000001" x14ac:dyDescent="0.6">
       <c r="A9" s="24">
         <f t="shared" si="0"/>
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B9" s="28" t="s">
         <v>46</v>
@@ -6710,7 +6710,7 @@
     <row r="10" spans="1:15" ht="18.600000000000001" x14ac:dyDescent="0.6">
       <c r="A10" s="24">
         <f t="shared" si="0"/>
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B10" s="28" t="s">
         <v>15</v>
@@ -6770,7 +6770,7 @@
     <row r="11" spans="1:15" ht="18.600000000000001" x14ac:dyDescent="0.6">
       <c r="A11" s="24">
         <f t="shared" si="0"/>
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B11" s="28" t="s">
         <v>45</v>
@@ -6830,7 +6830,7 @@
     <row r="12" spans="1:15" ht="18.600000000000001" x14ac:dyDescent="0.6">
       <c r="A12" s="24">
         <f t="shared" si="0"/>
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B12" s="28" t="s">
         <v>25</v>
@@ -6890,7 +6890,7 @@
     <row r="13" spans="1:15" ht="18.600000000000001" x14ac:dyDescent="0.6">
       <c r="A13" s="24">
         <f t="shared" si="0"/>
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B13" s="28" t="s">
         <v>30</v>
@@ -7010,7 +7010,7 @@
     <row r="15" spans="1:15" ht="18.600000000000001" x14ac:dyDescent="0.6">
       <c r="A15" s="24">
         <f t="shared" si="0"/>
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B15" s="28" t="s">
         <v>34</v>
@@ -7250,7 +7250,7 @@
     <row r="19" spans="1:15" ht="18.600000000000001" x14ac:dyDescent="0.6">
       <c r="A19" s="24">
         <f t="shared" si="0"/>
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B19" s="28" t="s">
         <v>44</v>
@@ -7310,7 +7310,7 @@
     <row r="20" spans="1:15" ht="18.600000000000001" x14ac:dyDescent="0.6">
       <c r="A20" s="24">
         <f t="shared" si="0"/>
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B20" s="28" t="s">
         <v>29</v>
@@ -7370,7 +7370,7 @@
     <row r="21" spans="1:15" ht="18.600000000000001" x14ac:dyDescent="0.6">
       <c r="A21" s="24">
         <f t="shared" si="0"/>
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B21" s="28" t="s">
         <v>42</v>
@@ -7490,7 +7490,7 @@
     <row r="23" spans="1:15" ht="18.600000000000001" x14ac:dyDescent="0.6">
       <c r="A23" s="24">
         <f t="shared" si="0"/>
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B23" s="28" t="s">
         <v>33</v>
@@ -7610,7 +7610,7 @@
     <row r="25" spans="1:15" ht="18.600000000000001" x14ac:dyDescent="0.6">
       <c r="A25" s="24">
         <f t="shared" si="0"/>
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B25" s="28" t="s">
         <v>23</v>
@@ -7730,7 +7730,7 @@
     <row r="27" spans="1:15" ht="18.600000000000001" x14ac:dyDescent="0.6">
       <c r="A27" s="24">
         <f t="shared" si="0"/>
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="B27" s="28" t="s">
         <v>49</v>
@@ -7910,7 +7910,7 @@
     <row r="30" spans="1:15" ht="18.600000000000001" x14ac:dyDescent="0.6">
       <c r="A30" s="24">
         <f t="shared" si="0"/>
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B30" s="28" t="s">
         <v>36</v>
@@ -8030,7 +8030,7 @@
     <row r="32" spans="1:15" ht="18.600000000000001" x14ac:dyDescent="0.6">
       <c r="A32" s="24">
         <f t="shared" si="0"/>
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B32" s="28" t="s">
         <v>20</v>
@@ -8450,7 +8450,7 @@
     <row r="39" spans="1:15" ht="18.600000000000001" x14ac:dyDescent="0.6">
       <c r="A39" s="24">
         <f t="shared" si="0"/>
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B39" s="28" t="s">
         <v>59</v>
@@ -8510,7 +8510,7 @@
     <row r="40" spans="1:15" ht="18.600000000000001" x14ac:dyDescent="0.6">
       <c r="A40" s="24">
         <f t="shared" si="0"/>
-        <v>20</v>
+        <v>6</v>
       </c>
       <c r="B40" s="28" t="s">
         <v>39</v>
@@ -8548,7 +8548,7 @@
       </c>
       <c r="K40" s="23">
         <f>IF(COUNTIF(درصد!B$2:B$44,C40)&gt;0, INDEX(درصد!I$2:I$44,MATCH(C40,درصد!B$2:B$44,0)),0)</f>
-        <v>-1</v>
+        <v>3</v>
       </c>
       <c r="L40" s="23">
         <f>IF(COUNTIF(درصد!B$2:B$44,C40)&gt;0, INDEX(درصد!J$2:J$44,MATCH(C40,درصد!B$2:B$44,0)),0)</f>
@@ -8556,7 +8556,7 @@
       </c>
       <c r="M40" s="23">
         <f>IF(COUNTIF(درصد!B$2:B$44,C40)&gt;0, INDEX(درصد!K$2:K$44,MATCH(C40,درصد!B$2:B$44,0)),0)</f>
-        <v>-1</v>
+        <v>3</v>
       </c>
       <c r="N40" s="23">
         <f>IF(COUNTIF(درصد!B$2:B$44,C40)&gt;0, INDEX(درصد!L$2:L$44,MATCH(C40,درصد!B$2:B$44,0)),0)</f>
@@ -8564,13 +8564,13 @@
       </c>
       <c r="O40" s="26">
         <f>IF(COUNTIF(درصد!B$2:B$44,C40)&gt;0, INDEX(درصد!M$2:M$44,MATCH(C40,درصد!B$2:B$44,0)),0)</f>
-        <v>33.333333333333329</v>
+        <v>60</v>
       </c>
     </row>
     <row r="41" spans="1:15" ht="18.600000000000001" x14ac:dyDescent="0.6">
       <c r="A41" s="24">
         <f t="shared" si="0"/>
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B41" s="28" t="s">
         <v>32</v>
@@ -8949,7 +8949,7 @@
       </c>
       <c r="C11" s="41">
         <f>IF(COUNTIF(درصد!B$2:B$44,B11)&gt;0, INDEX(درصد!M$2:M$44,MATCH(B11,درصد!B$2:B$44,0)),0)</f>
-        <v>33.333333333333329</v>
+        <v>60</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.3">
@@ -9334,8 +9334,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:O44"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A24" workbookViewId="0">
-      <selection activeCell="O44" sqref="A1:O44"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="R35" sqref="R35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -9696,10 +9696,10 @@
         <v>6</v>
       </c>
       <c r="B7" s="28" t="s">
-        <v>46</v>
+        <v>39</v>
       </c>
       <c r="C7" s="21">
-        <v>1012</v>
+        <v>1010</v>
       </c>
       <c r="D7" s="23" t="str">
         <f>IF(COUNTIF(گوگل!B$2:B$44,C7)=1,"حاضر","غایب")</f>
@@ -9707,7 +9707,7 @@
       </c>
       <c r="E7" s="23">
         <f>IF(COUNTIF(گوگل!$B$2:$B$44,$C7)&gt;0, INDEX(گوگل!C$2:C$44,MATCH($C7,گوگل!$B$2:$B$44,0)),0)</f>
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="F7" s="23">
         <f>IF(COUNTIF(گوگل!$B$2:$B$44,$C7)&gt;0, INDEX(گوگل!D$2:D$44,MATCH($C7,گوگل!$B$2:$B$44,0)),0)</f>
@@ -9719,47 +9719,47 @@
       </c>
       <c r="H7" s="23">
         <f>IF(COUNTIF(گوگل!$B$2:$B$44,$C7)&gt;0, INDEX(گوگل!F$2:F$44,MATCH($C7,گوگل!$B$2:$B$44,0)),0)</f>
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="I7" s="23">
         <f>IF(COUNTIF(گوگل!$B$2:$B$44,$C7)&gt;0, INDEX(گوگل!G$2:G$44,MATCH($C7,گوگل!$B$2:$B$44,0)),0)</f>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="J7" s="23">
         <f>IF(COUNTIF(گوگل!$B$2:$B$44,$C7)&gt;0, INDEX(گوگل!H$2:H$44,MATCH($C7,گوگل!$B$2:$B$44,0)),0)</f>
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="K7" s="23">
         <f>IF(COUNTIF(گوگل!$B$2:$B$44,$C7)&gt;0, INDEX(گوگل!I$2:I$44,MATCH($C7,گوگل!$B$2:$B$44,0)),0)</f>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="L7" s="23">
         <f>IF(COUNTIF(گوگل!$B$2:$B$44,$C7)&gt;0, INDEX(گوگل!J$2:J$44,MATCH($C7,گوگل!$B$2:$B$44,0)),0)</f>
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="M7" s="23">
         <f>IF(COUNTIF(گوگل!$B$2:$B$44,$C7)&gt;0, INDEX(گوگل!K$2:K$44,MATCH($C7,گوگل!$B$2:$B$44,0)),0)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N7" s="23">
         <f>IF(COUNTIF(گوگل!$B$2:$B$44,$C7)&gt;0, INDEX(گوگل!L$2:L$44,MATCH($C7,گوگل!$B$2:$B$44,0)),0)</f>
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="O7" s="26">
         <f>IF(COUNTIF(درصد!B$2:B$44,C7)&gt;0, INDEX(درصد!M$2:M$44,MATCH(C7,درصد!B$2:B$44,0)),0)</f>
-        <v>56.666666666666664</v>
+        <v>60</v>
       </c>
     </row>
     <row r="8" spans="1:15" ht="18.600000000000001" x14ac:dyDescent="0.6">
       <c r="A8" s="24">
         <f t="shared" si="0"/>
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B8" s="28" t="s">
-        <v>20</v>
+        <v>46</v>
       </c>
       <c r="C8" s="21">
-        <v>1022</v>
+        <v>1012</v>
       </c>
       <c r="D8" s="23" t="str">
         <f>IF(COUNTIF(گوگل!B$2:B$44,C8)=1,"حاضر","غایب")</f>
@@ -9771,7 +9771,7 @@
       </c>
       <c r="F8" s="23">
         <f>IF(COUNTIF(گوگل!$B$2:$B$44,$C8)&gt;0, INDEX(گوگل!D$2:D$44,MATCH($C8,گوگل!$B$2:$B$44,0)),0)</f>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="G8" s="23">
         <f>IF(COUNTIF(گوگل!$B$2:$B$44,$C8)&gt;0, INDEX(گوگل!E$2:E$44,MATCH($C8,گوگل!$B$2:$B$44,0)),0)</f>
@@ -9779,11 +9779,11 @@
       </c>
       <c r="H8" s="23">
         <f>IF(COUNTIF(گوگل!$B$2:$B$44,$C8)&gt;0, INDEX(گوگل!F$2:F$44,MATCH($C8,گوگل!$B$2:$B$44,0)),0)</f>
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="I8" s="23">
         <f>IF(COUNTIF(گوگل!$B$2:$B$44,$C8)&gt;0, INDEX(گوگل!G$2:G$44,MATCH($C8,گوگل!$B$2:$B$44,0)),0)</f>
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="J8" s="23">
         <f>IF(COUNTIF(گوگل!$B$2:$B$44,$C8)&gt;0, INDEX(گوگل!H$2:H$44,MATCH($C8,گوگل!$B$2:$B$44,0)),0)</f>
@@ -9813,13 +9813,13 @@
     <row r="9" spans="1:15" ht="18.600000000000001" x14ac:dyDescent="0.6">
       <c r="A9" s="24">
         <f t="shared" si="0"/>
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B9" s="28" t="s">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="C9" s="21">
-        <v>1039</v>
+        <v>1022</v>
       </c>
       <c r="D9" s="23" t="str">
         <f>IF(COUNTIF(گوگل!B$2:B$44,C9)=1,"حاضر","غایب")</f>
@@ -9831,19 +9831,19 @@
       </c>
       <c r="F9" s="23">
         <f>IF(COUNTIF(گوگل!$B$2:$B$44,$C9)&gt;0, INDEX(گوگل!D$2:D$44,MATCH($C9,گوگل!$B$2:$B$44,0)),0)</f>
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="G9" s="23">
         <f>IF(COUNTIF(گوگل!$B$2:$B$44,$C9)&gt;0, INDEX(گوگل!E$2:E$44,MATCH($C9,گوگل!$B$2:$B$44,0)),0)</f>
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="H9" s="23">
         <f>IF(COUNTIF(گوگل!$B$2:$B$44,$C9)&gt;0, INDEX(گوگل!F$2:F$44,MATCH($C9,گوگل!$B$2:$B$44,0)),0)</f>
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="I9" s="23">
         <f>IF(COUNTIF(گوگل!$B$2:$B$44,$C9)&gt;0, INDEX(گوگل!G$2:G$44,MATCH($C9,گوگل!$B$2:$B$44,0)),0)</f>
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="J9" s="23">
         <f>IF(COUNTIF(گوگل!$B$2:$B$44,$C9)&gt;0, INDEX(گوگل!H$2:H$44,MATCH($C9,گوگل!$B$2:$B$44,0)),0)</f>
@@ -9859,7 +9859,7 @@
       </c>
       <c r="M9" s="23">
         <f>IF(COUNTIF(گوگل!$B$2:$B$44,$C9)&gt;0, INDEX(گوگل!K$2:K$44,MATCH($C9,گوگل!$B$2:$B$44,0)),0)</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N9" s="23">
         <f>IF(COUNTIF(گوگل!$B$2:$B$44,$C9)&gt;0, INDEX(گوگل!L$2:L$44,MATCH($C9,گوگل!$B$2:$B$44,0)),0)</f>
@@ -9867,19 +9867,19 @@
       </c>
       <c r="O9" s="26">
         <f>IF(COUNTIF(درصد!B$2:B$44,C9)&gt;0, INDEX(درصد!M$2:M$44,MATCH(C9,درصد!B$2:B$44,0)),0)</f>
-        <v>53.333333333333336</v>
+        <v>56.666666666666664</v>
       </c>
     </row>
     <row r="10" spans="1:15" ht="18.600000000000001" x14ac:dyDescent="0.6">
       <c r="A10" s="24">
         <f t="shared" si="0"/>
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B10" s="28" t="s">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="C10" s="21">
-        <v>1023</v>
+        <v>1039</v>
       </c>
       <c r="D10" s="23" t="str">
         <f>IF(COUNTIF(گوگل!B$2:B$44,C10)=1,"حاضر","غایب")</f>
@@ -9891,11 +9891,11 @@
       </c>
       <c r="F10" s="23">
         <f>IF(COUNTIF(گوگل!$B$2:$B$44,$C10)&gt;0, INDEX(گوگل!D$2:D$44,MATCH($C10,گوگل!$B$2:$B$44,0)),0)</f>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="G10" s="23">
         <f>IF(COUNTIF(گوگل!$B$2:$B$44,$C10)&gt;0, INDEX(گوگل!E$2:E$44,MATCH($C10,گوگل!$B$2:$B$44,0)),0)</f>
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="H10" s="23">
         <f>IF(COUNTIF(گوگل!$B$2:$B$44,$C10)&gt;0, INDEX(گوگل!F$2:F$44,MATCH($C10,گوگل!$B$2:$B$44,0)),0)</f>
@@ -9911,7 +9911,7 @@
       </c>
       <c r="K10" s="23">
         <f>IF(COUNTIF(گوگل!$B$2:$B$44,$C10)&gt;0, INDEX(گوگل!I$2:I$44,MATCH($C10,گوگل!$B$2:$B$44,0)),0)</f>
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="L10" s="23">
         <f>IF(COUNTIF(گوگل!$B$2:$B$44,$C10)&gt;0, INDEX(گوگل!J$2:J$44,MATCH($C10,گوگل!$B$2:$B$44,0)),0)</f>
@@ -9919,7 +9919,7 @@
       </c>
       <c r="M10" s="23">
         <f>IF(COUNTIF(گوگل!$B$2:$B$44,$C10)&gt;0, INDEX(گوگل!K$2:K$44,MATCH($C10,گوگل!$B$2:$B$44,0)),0)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N10" s="23">
         <f>IF(COUNTIF(گوگل!$B$2:$B$44,$C10)&gt;0, INDEX(گوگل!L$2:L$44,MATCH($C10,گوگل!$B$2:$B$44,0)),0)</f>
@@ -9933,13 +9933,13 @@
     <row r="11" spans="1:15" ht="18.600000000000001" x14ac:dyDescent="0.6">
       <c r="A11" s="24">
         <f t="shared" si="0"/>
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B11" s="28" t="s">
-        <v>44</v>
+        <v>30</v>
       </c>
       <c r="C11" s="21">
-        <v>1034</v>
+        <v>1023</v>
       </c>
       <c r="D11" s="23" t="str">
         <f>IF(COUNTIF(گوگل!B$2:B$44,C11)=1,"حاضر","غایب")</f>
@@ -9951,7 +9951,7 @@
       </c>
       <c r="F11" s="23">
         <f>IF(COUNTIF(گوگل!$B$2:$B$44,$C11)&gt;0, INDEX(گوگل!D$2:D$44,MATCH($C11,گوگل!$B$2:$B$44,0)),0)</f>
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="G11" s="23">
         <f>IF(COUNTIF(گوگل!$B$2:$B$44,$C11)&gt;0, INDEX(گوگل!E$2:E$44,MATCH($C11,گوگل!$B$2:$B$44,0)),0)</f>
@@ -9971,7 +9971,7 @@
       </c>
       <c r="K11" s="23">
         <f>IF(COUNTIF(گوگل!$B$2:$B$44,$C11)&gt;0, INDEX(گوگل!I$2:I$44,MATCH($C11,گوگل!$B$2:$B$44,0)),0)</f>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="L11" s="23">
         <f>IF(COUNTIF(گوگل!$B$2:$B$44,$C11)&gt;0, INDEX(گوگل!J$2:J$44,MATCH($C11,گوگل!$B$2:$B$44,0)),0)</f>
@@ -9979,7 +9979,7 @@
       </c>
       <c r="M11" s="23">
         <f>IF(COUNTIF(گوگل!$B$2:$B$44,$C11)&gt;0, INDEX(گوگل!K$2:K$44,MATCH($C11,گوگل!$B$2:$B$44,0)),0)</f>
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="N11" s="23">
         <f>IF(COUNTIF(گوگل!$B$2:$B$44,$C11)&gt;0, INDEX(گوگل!L$2:L$44,MATCH($C11,گوگل!$B$2:$B$44,0)),0)</f>
@@ -9993,13 +9993,13 @@
     <row r="12" spans="1:15" ht="18.600000000000001" x14ac:dyDescent="0.6">
       <c r="A12" s="24">
         <f t="shared" si="0"/>
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="B12" s="28" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="C12" s="21">
-        <v>1040</v>
+        <v>1034</v>
       </c>
       <c r="D12" s="23" t="str">
         <f>IF(COUNTIF(گوگل!B$2:B$44,C12)=1,"حاضر","غایب")</f>
@@ -10007,7 +10007,7 @@
       </c>
       <c r="E12" s="23">
         <f>IF(COUNTIF(گوگل!$B$2:$B$44,$C12)&gt;0, INDEX(گوگل!C$2:C$44,MATCH($C12,گوگل!$B$2:$B$44,0)),0)</f>
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="F12" s="23">
         <f>IF(COUNTIF(گوگل!$B$2:$B$44,$C12)&gt;0, INDEX(گوگل!D$2:D$44,MATCH($C12,گوگل!$B$2:$B$44,0)),0)</f>
@@ -10031,7 +10031,7 @@
       </c>
       <c r="K12" s="23">
         <f>IF(COUNTIF(گوگل!$B$2:$B$44,$C12)&gt;0, INDEX(گوگل!I$2:I$44,MATCH($C12,گوگل!$B$2:$B$44,0)),0)</f>
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="L12" s="23">
         <f>IF(COUNTIF(گوگل!$B$2:$B$44,$C12)&gt;0, INDEX(گوگل!J$2:J$44,MATCH($C12,گوگل!$B$2:$B$44,0)),0)</f>
@@ -10039,7 +10039,7 @@
       </c>
       <c r="M12" s="23">
         <f>IF(COUNTIF(گوگل!$B$2:$B$44,$C12)&gt;0, INDEX(گوگل!K$2:K$44,MATCH($C12,گوگل!$B$2:$B$44,0)),0)</f>
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="N12" s="23">
         <f>IF(COUNTIF(گوگل!$B$2:$B$44,$C12)&gt;0, INDEX(گوگل!L$2:L$44,MATCH($C12,گوگل!$B$2:$B$44,0)),0)</f>
@@ -10047,7 +10047,7 @@
       </c>
       <c r="O12" s="26">
         <f>IF(COUNTIF(درصد!B$2:B$44,C12)&gt;0, INDEX(درصد!M$2:M$44,MATCH(C12,درصد!B$2:B$44,0)),0)</f>
-        <v>50</v>
+        <v>53.333333333333336</v>
       </c>
     </row>
     <row r="13" spans="1:15" ht="18.600000000000001" x14ac:dyDescent="0.6">
@@ -10056,10 +10056,10 @@
         <v>12</v>
       </c>
       <c r="B13" s="28" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="C13" s="21">
-        <v>1031</v>
+        <v>1040</v>
       </c>
       <c r="D13" s="23" t="str">
         <f>IF(COUNTIF(گوگل!B$2:B$44,C13)=1,"حاضر","غایب")</f>
@@ -10067,11 +10067,11 @@
       </c>
       <c r="E13" s="23">
         <f>IF(COUNTIF(گوگل!$B$2:$B$44,$C13)&gt;0, INDEX(گوگل!C$2:C$44,MATCH($C13,گوگل!$B$2:$B$44,0)),0)</f>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="F13" s="23">
         <f>IF(COUNTIF(گوگل!$B$2:$B$44,$C13)&gt;0, INDEX(گوگل!D$2:D$44,MATCH($C13,گوگل!$B$2:$B$44,0)),0)</f>
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="G13" s="23">
         <f>IF(COUNTIF(گوگل!$B$2:$B$44,$C13)&gt;0, INDEX(گوگل!E$2:E$44,MATCH($C13,گوگل!$B$2:$B$44,0)),0)</f>
@@ -10079,7 +10079,7 @@
       </c>
       <c r="H13" s="23">
         <f>IF(COUNTIF(گوگل!$B$2:$B$44,$C13)&gt;0, INDEX(گوگل!F$2:F$44,MATCH($C13,گوگل!$B$2:$B$44,0)),0)</f>
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="I13" s="23">
         <f>IF(COUNTIF(گوگل!$B$2:$B$44,$C13)&gt;0, INDEX(گوگل!G$2:G$44,MATCH($C13,گوگل!$B$2:$B$44,0)),0)</f>
@@ -10099,7 +10099,7 @@
       </c>
       <c r="M13" s="23">
         <f>IF(COUNTIF(گوگل!$B$2:$B$44,$C13)&gt;0, INDEX(گوگل!K$2:K$44,MATCH($C13,گوگل!$B$2:$B$44,0)),0)</f>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="N13" s="23">
         <f>IF(COUNTIF(گوگل!$B$2:$B$44,$C13)&gt;0, INDEX(گوگل!L$2:L$44,MATCH($C13,گوگل!$B$2:$B$44,0)),0)</f>
@@ -10107,7 +10107,7 @@
       </c>
       <c r="O13" s="26">
         <f>IF(COUNTIF(درصد!B$2:B$44,C13)&gt;0, INDEX(درصد!M$2:M$44,MATCH(C13,درصد!B$2:B$44,0)),0)</f>
-        <v>46.666666666666664</v>
+        <v>50</v>
       </c>
     </row>
     <row r="14" spans="1:15" ht="18.600000000000001" x14ac:dyDescent="0.6">
@@ -10116,10 +10116,10 @@
         <v>13</v>
       </c>
       <c r="B14" s="28" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="C14" s="21">
-        <v>1009</v>
+        <v>1031</v>
       </c>
       <c r="D14" s="23" t="str">
         <f>IF(COUNTIF(گوگل!B$2:B$44,C14)=1,"حاضر","غایب")</f>
@@ -10127,11 +10127,11 @@
       </c>
       <c r="E14" s="23">
         <f>IF(COUNTIF(گوگل!$B$2:$B$44,$C14)&gt;0, INDEX(گوگل!C$2:C$44,MATCH($C14,گوگل!$B$2:$B$44,0)),0)</f>
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="F14" s="23">
         <f>IF(COUNTIF(گوگل!$B$2:$B$44,$C14)&gt;0, INDEX(گوگل!D$2:D$44,MATCH($C14,گوگل!$B$2:$B$44,0)),0)</f>
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="G14" s="23">
         <f>IF(COUNTIF(گوگل!$B$2:$B$44,$C14)&gt;0, INDEX(گوگل!E$2:E$44,MATCH($C14,گوگل!$B$2:$B$44,0)),0)</f>
@@ -10143,7 +10143,7 @@
       </c>
       <c r="I14" s="23">
         <f>IF(COUNTIF(گوگل!$B$2:$B$44,$C14)&gt;0, INDEX(گوگل!G$2:G$44,MATCH($C14,گوگل!$B$2:$B$44,0)),0)</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J14" s="23">
         <f>IF(COUNTIF(گوگل!$B$2:$B$44,$C14)&gt;0, INDEX(گوگل!H$2:H$44,MATCH($C14,گوگل!$B$2:$B$44,0)),0)</f>
@@ -10151,7 +10151,7 @@
       </c>
       <c r="K14" s="23">
         <f>IF(COUNTIF(گوگل!$B$2:$B$44,$C14)&gt;0, INDEX(گوگل!I$2:I$44,MATCH($C14,گوگل!$B$2:$B$44,0)),0)</f>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="L14" s="23">
         <f>IF(COUNTIF(گوگل!$B$2:$B$44,$C14)&gt;0, INDEX(گوگل!J$2:J$44,MATCH($C14,گوگل!$B$2:$B$44,0)),0)</f>
@@ -10159,7 +10159,7 @@
       </c>
       <c r="M14" s="23">
         <f>IF(COUNTIF(گوگل!$B$2:$B$44,$C14)&gt;0, INDEX(گوگل!K$2:K$44,MATCH($C14,گوگل!$B$2:$B$44,0)),0)</f>
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="N14" s="23">
         <f>IF(COUNTIF(گوگل!$B$2:$B$44,$C14)&gt;0, INDEX(گوگل!L$2:L$44,MATCH($C14,گوگل!$B$2:$B$44,0)),0)</f>
@@ -10167,19 +10167,19 @@
       </c>
       <c r="O14" s="26">
         <f>IF(COUNTIF(درصد!B$2:B$44,C14)&gt;0, INDEX(درصد!M$2:M$44,MATCH(C14,درصد!B$2:B$44,0)),0)</f>
-        <v>43.333333333333336</v>
+        <v>46.666666666666664</v>
       </c>
     </row>
     <row r="15" spans="1:15" ht="18.600000000000001" x14ac:dyDescent="0.6">
       <c r="A15" s="24">
         <f t="shared" si="0"/>
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B15" s="28" t="s">
-        <v>15</v>
+        <v>43</v>
       </c>
       <c r="C15" s="21">
-        <v>1024</v>
+        <v>1009</v>
       </c>
       <c r="D15" s="23" t="str">
         <f>IF(COUNTIF(گوگل!B$2:B$44,C15)=1,"حاضر","غایب")</f>
@@ -10199,11 +10199,11 @@
       </c>
       <c r="H15" s="23">
         <f>IF(COUNTIF(گوگل!$B$2:$B$44,$C15)&gt;0, INDEX(گوگل!F$2:F$44,MATCH($C15,گوگل!$B$2:$B$44,0)),0)</f>
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="I15" s="23">
         <f>IF(COUNTIF(گوگل!$B$2:$B$44,$C15)&gt;0, INDEX(گوگل!G$2:G$44,MATCH($C15,گوگل!$B$2:$B$44,0)),0)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J15" s="23">
         <f>IF(COUNTIF(گوگل!$B$2:$B$44,$C15)&gt;0, INDEX(گوگل!H$2:H$44,MATCH($C15,گوگل!$B$2:$B$44,0)),0)</f>
@@ -10211,7 +10211,7 @@
       </c>
       <c r="K15" s="23">
         <f>IF(COUNTIF(گوگل!$B$2:$B$44,$C15)&gt;0, INDEX(گوگل!I$2:I$44,MATCH($C15,گوگل!$B$2:$B$44,0)),0)</f>
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="L15" s="23">
         <f>IF(COUNTIF(گوگل!$B$2:$B$44,$C15)&gt;0, INDEX(گوگل!J$2:J$44,MATCH($C15,گوگل!$B$2:$B$44,0)),0)</f>
@@ -10219,7 +10219,7 @@
       </c>
       <c r="M15" s="23">
         <f>IF(COUNTIF(گوگل!$B$2:$B$44,$C15)&gt;0, INDEX(گوگل!K$2:K$44,MATCH($C15,گوگل!$B$2:$B$44,0)),0)</f>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="N15" s="23">
         <f>IF(COUNTIF(گوگل!$B$2:$B$44,$C15)&gt;0, INDEX(گوگل!L$2:L$44,MATCH($C15,گوگل!$B$2:$B$44,0)),0)</f>
@@ -10233,13 +10233,13 @@
     <row r="16" spans="1:15" ht="18.600000000000001" x14ac:dyDescent="0.6">
       <c r="A16" s="24">
         <f t="shared" si="0"/>
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B16" s="28" t="s">
-        <v>29</v>
+        <v>15</v>
       </c>
       <c r="C16" s="21">
-        <v>1037</v>
+        <v>1024</v>
       </c>
       <c r="D16" s="23" t="str">
         <f>IF(COUNTIF(گوگل!B$2:B$44,C16)=1,"حاضر","غایب")</f>
@@ -10271,7 +10271,7 @@
       </c>
       <c r="K16" s="23">
         <f>IF(COUNTIF(گوگل!$B$2:$B$44,$C16)&gt;0, INDEX(گوگل!I$2:I$44,MATCH($C16,گوگل!$B$2:$B$44,0)),0)</f>
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="L16" s="23">
         <f>IF(COUNTIF(گوگل!$B$2:$B$44,$C16)&gt;0, INDEX(گوگل!J$2:J$44,MATCH($C16,گوگل!$B$2:$B$44,0)),0)</f>
@@ -10293,13 +10293,13 @@
     <row r="17" spans="1:15" ht="18.600000000000001" x14ac:dyDescent="0.6">
       <c r="A17" s="24">
         <f t="shared" si="0"/>
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B17" s="28" t="s">
-        <v>59</v>
+        <v>29</v>
       </c>
       <c r="C17" s="21">
-        <v>1041</v>
+        <v>1037</v>
       </c>
       <c r="D17" s="23" t="str">
         <f>IF(COUNTIF(گوگل!B$2:B$44,C17)=1,"حاضر","غایب")</f>
@@ -10315,31 +10315,31 @@
       </c>
       <c r="G17" s="23">
         <f>IF(COUNTIF(گوگل!$B$2:$B$44,$C17)&gt;0, INDEX(گوگل!E$2:E$44,MATCH($C17,گوگل!$B$2:$B$44,0)),0)</f>
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="H17" s="23">
         <f>IF(COUNTIF(گوگل!$B$2:$B$44,$C17)&gt;0, INDEX(گوگل!F$2:F$44,MATCH($C17,گوگل!$B$2:$B$44,0)),0)</f>
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="I17" s="23">
         <f>IF(COUNTIF(گوگل!$B$2:$B$44,$C17)&gt;0, INDEX(گوگل!G$2:G$44,MATCH($C17,گوگل!$B$2:$B$44,0)),0)</f>
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="J17" s="23">
         <f>IF(COUNTIF(گوگل!$B$2:$B$44,$C17)&gt;0, INDEX(گوگل!H$2:H$44,MATCH($C17,گوگل!$B$2:$B$44,0)),0)</f>
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="K17" s="23">
         <f>IF(COUNTIF(گوگل!$B$2:$B$44,$C17)&gt;0, INDEX(گوگل!I$2:I$44,MATCH($C17,گوگل!$B$2:$B$44,0)),0)</f>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L17" s="23">
         <f>IF(COUNTIF(گوگل!$B$2:$B$44,$C17)&gt;0, INDEX(گوگل!J$2:J$44,MATCH($C17,گوگل!$B$2:$B$44,0)),0)</f>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="M17" s="23">
         <f>IF(COUNTIF(گوگل!$B$2:$B$44,$C17)&gt;0, INDEX(گوگل!K$2:K$44,MATCH($C17,گوگل!$B$2:$B$44,0)),0)</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N17" s="23">
         <f>IF(COUNTIF(گوگل!$B$2:$B$44,$C17)&gt;0, INDEX(گوگل!L$2:L$44,MATCH($C17,گوگل!$B$2:$B$44,0)),0)</f>
@@ -10353,13 +10353,13 @@
     <row r="18" spans="1:15" ht="18.600000000000001" x14ac:dyDescent="0.6">
       <c r="A18" s="24">
         <f t="shared" si="0"/>
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="B18" s="28" t="s">
-        <v>23</v>
+        <v>59</v>
       </c>
       <c r="C18" s="21">
-        <v>1017</v>
+        <v>1041</v>
       </c>
       <c r="D18" s="23" t="str">
         <f>IF(COUNTIF(گوگل!B$2:B$44,C18)=1,"حاضر","غایب")</f>
@@ -10371,7 +10371,7 @@
       </c>
       <c r="F18" s="23">
         <f>IF(COUNTIF(گوگل!$B$2:$B$44,$C18)&gt;0, INDEX(گوگل!D$2:D$44,MATCH($C18,گوگل!$B$2:$B$44,0)),0)</f>
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="G18" s="23">
         <f>IF(COUNTIF(گوگل!$B$2:$B$44,$C18)&gt;0, INDEX(گوگل!E$2:E$44,MATCH($C18,گوگل!$B$2:$B$44,0)),0)</f>
@@ -10379,15 +10379,15 @@
       </c>
       <c r="H18" s="23">
         <f>IF(COUNTIF(گوگل!$B$2:$B$44,$C18)&gt;0, INDEX(گوگل!F$2:F$44,MATCH($C18,گوگل!$B$2:$B$44,0)),0)</f>
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I18" s="23">
         <f>IF(COUNTIF(گوگل!$B$2:$B$44,$C18)&gt;0, INDEX(گوگل!G$2:G$44,MATCH($C18,گوگل!$B$2:$B$44,0)),0)</f>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="J18" s="23">
         <f>IF(COUNTIF(گوگل!$B$2:$B$44,$C18)&gt;0, INDEX(گوگل!H$2:H$44,MATCH($C18,گوگل!$B$2:$B$44,0)),0)</f>
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="K18" s="23">
         <f>IF(COUNTIF(گوگل!$B$2:$B$44,$C18)&gt;0, INDEX(گوگل!I$2:I$44,MATCH($C18,گوگل!$B$2:$B$44,0)),0)</f>
@@ -10395,11 +10395,11 @@
       </c>
       <c r="L18" s="23">
         <f>IF(COUNTIF(گوگل!$B$2:$B$44,$C18)&gt;0, INDEX(گوگل!J$2:J$44,MATCH($C18,گوگل!$B$2:$B$44,0)),0)</f>
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="M18" s="23">
         <f>IF(COUNTIF(گوگل!$B$2:$B$44,$C18)&gt;0, INDEX(گوگل!K$2:K$44,MATCH($C18,گوگل!$B$2:$B$44,0)),0)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N18" s="23">
         <f>IF(COUNTIF(گوگل!$B$2:$B$44,$C18)&gt;0, INDEX(گوگل!L$2:L$44,MATCH($C18,گوگل!$B$2:$B$44,0)),0)</f>
@@ -10407,19 +10407,19 @@
       </c>
       <c r="O18" s="26">
         <f>IF(COUNTIF(درصد!B$2:B$44,C18)&gt;0, INDEX(درصد!M$2:M$44,MATCH(C18,درصد!B$2:B$44,0)),0)</f>
-        <v>40</v>
+        <v>43.333333333333336</v>
       </c>
     </row>
     <row r="19" spans="1:15" ht="18.600000000000001" x14ac:dyDescent="0.6">
       <c r="A19" s="24">
         <f t="shared" si="0"/>
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B19" s="28" t="s">
-        <v>32</v>
+        <v>23</v>
       </c>
       <c r="C19" s="21">
-        <v>1035</v>
+        <v>1017</v>
       </c>
       <c r="D19" s="23" t="str">
         <f>IF(COUNTIF(گوگل!B$2:B$44,C19)=1,"حاضر","غایب")</f>
@@ -10427,23 +10427,23 @@
       </c>
       <c r="E19" s="23">
         <f>IF(COUNTIF(گوگل!$B$2:$B$44,$C19)&gt;0, INDEX(گوگل!C$2:C$44,MATCH($C19,گوگل!$B$2:$B$44,0)),0)</f>
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="F19" s="23">
         <f>IF(COUNTIF(گوگل!$B$2:$B$44,$C19)&gt;0, INDEX(گوگل!D$2:D$44,MATCH($C19,گوگل!$B$2:$B$44,0)),0)</f>
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="G19" s="23">
         <f>IF(COUNTIF(گوگل!$B$2:$B$44,$C19)&gt;0, INDEX(گوگل!E$2:E$44,MATCH($C19,گوگل!$B$2:$B$44,0)),0)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H19" s="23">
         <f>IF(COUNTIF(گوگل!$B$2:$B$44,$C19)&gt;0, INDEX(گوگل!F$2:F$44,MATCH($C19,گوگل!$B$2:$B$44,0)),0)</f>
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="I19" s="23">
         <f>IF(COUNTIF(گوگل!$B$2:$B$44,$C19)&gt;0, INDEX(گوگل!G$2:G$44,MATCH($C19,گوگل!$B$2:$B$44,0)),0)</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J19" s="23">
         <f>IF(COUNTIF(گوگل!$B$2:$B$44,$C19)&gt;0, INDEX(گوگل!H$2:H$44,MATCH($C19,گوگل!$B$2:$B$44,0)),0)</f>
@@ -10459,7 +10459,7 @@
       </c>
       <c r="M19" s="23">
         <f>IF(COUNTIF(گوگل!$B$2:$B$44,$C19)&gt;0, INDEX(گوگل!K$2:K$44,MATCH($C19,گوگل!$B$2:$B$44,0)),0)</f>
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="N19" s="23">
         <f>IF(COUNTIF(گوگل!$B$2:$B$44,$C19)&gt;0, INDEX(گوگل!L$2:L$44,MATCH($C19,گوگل!$B$2:$B$44,0)),0)</f>
@@ -10473,13 +10473,13 @@
     <row r="20" spans="1:15" ht="18.600000000000001" x14ac:dyDescent="0.6">
       <c r="A20" s="24">
         <f t="shared" si="0"/>
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B20" s="28" t="s">
-        <v>49</v>
+        <v>32</v>
       </c>
       <c r="C20" s="21">
-        <v>1033</v>
+        <v>1035</v>
       </c>
       <c r="D20" s="23" t="str">
         <f>IF(COUNTIF(گوگل!B$2:B$44,C20)=1,"حاضر","غایب")</f>
@@ -10491,11 +10491,11 @@
       </c>
       <c r="F20" s="23">
         <f>IF(COUNTIF(گوگل!$B$2:$B$44,$C20)&gt;0, INDEX(گوگل!D$2:D$44,MATCH($C20,گوگل!$B$2:$B$44,0)),0)</f>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="G20" s="23">
         <f>IF(COUNTIF(گوگل!$B$2:$B$44,$C20)&gt;0, INDEX(گوگل!E$2:E$44,MATCH($C20,گوگل!$B$2:$B$44,0)),0)</f>
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="H20" s="23">
         <f>IF(COUNTIF(گوگل!$B$2:$B$44,$C20)&gt;0, INDEX(گوگل!F$2:F$44,MATCH($C20,گوگل!$B$2:$B$44,0)),0)</f>
@@ -10503,7 +10503,7 @@
       </c>
       <c r="I20" s="23">
         <f>IF(COUNTIF(گوگل!$B$2:$B$44,$C20)&gt;0, INDEX(گوگل!G$2:G$44,MATCH($C20,گوگل!$B$2:$B$44,0)),0)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J20" s="23">
         <f>IF(COUNTIF(گوگل!$B$2:$B$44,$C20)&gt;0, INDEX(گوگل!H$2:H$44,MATCH($C20,گوگل!$B$2:$B$44,0)),0)</f>
@@ -10511,7 +10511,7 @@
       </c>
       <c r="K20" s="23">
         <f>IF(COUNTIF(گوگل!$B$2:$B$44,$C20)&gt;0, INDEX(گوگل!I$2:I$44,MATCH($C20,گوگل!$B$2:$B$44,0)),0)</f>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="L20" s="23">
         <f>IF(COUNTIF(گوگل!$B$2:$B$44,$C20)&gt;0, INDEX(گوگل!J$2:J$44,MATCH($C20,گوگل!$B$2:$B$44,0)),0)</f>
@@ -10519,7 +10519,7 @@
       </c>
       <c r="M20" s="23">
         <f>IF(COUNTIF(گوگل!$B$2:$B$44,$C20)&gt;0, INDEX(گوگل!K$2:K$44,MATCH($C20,گوگل!$B$2:$B$44,0)),0)</f>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="N20" s="23">
         <f>IF(COUNTIF(گوگل!$B$2:$B$44,$C20)&gt;0, INDEX(گوگل!L$2:L$44,MATCH($C20,گوگل!$B$2:$B$44,0)),0)</f>
@@ -10527,7 +10527,7 @@
       </c>
       <c r="O20" s="26">
         <f>IF(COUNTIF(درصد!B$2:B$44,C20)&gt;0, INDEX(درصد!M$2:M$44,MATCH(C20,درصد!B$2:B$44,0)),0)</f>
-        <v>36.666666666666664</v>
+        <v>40</v>
       </c>
     </row>
     <row r="21" spans="1:15" ht="18.600000000000001" x14ac:dyDescent="0.6">
@@ -10536,10 +10536,10 @@
         <v>20</v>
       </c>
       <c r="B21" s="28" t="s">
-        <v>34</v>
+        <v>49</v>
       </c>
       <c r="C21" s="21">
-        <v>1005</v>
+        <v>1033</v>
       </c>
       <c r="D21" s="23" t="str">
         <f>IF(COUNTIF(گوگل!B$2:B$44,C21)=1,"حاضر","غایب")</f>
@@ -10547,7 +10547,7 @@
       </c>
       <c r="E21" s="23">
         <f>IF(COUNTIF(گوگل!$B$2:$B$44,$C21)&gt;0, INDEX(گوگل!C$2:C$44,MATCH($C21,گوگل!$B$2:$B$44,0)),0)</f>
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="F21" s="23">
         <f>IF(COUNTIF(گوگل!$B$2:$B$44,$C21)&gt;0, INDEX(گوگل!D$2:D$44,MATCH($C21,گوگل!$B$2:$B$44,0)),0)</f>
@@ -10555,11 +10555,11 @@
       </c>
       <c r="G21" s="23">
         <f>IF(COUNTIF(گوگل!$B$2:$B$44,$C21)&gt;0, INDEX(گوگل!E$2:E$44,MATCH($C21,گوگل!$B$2:$B$44,0)),0)</f>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="H21" s="23">
         <f>IF(COUNTIF(گوگل!$B$2:$B$44,$C21)&gt;0, INDEX(گوگل!F$2:F$44,MATCH($C21,گوگل!$B$2:$B$44,0)),0)</f>
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="I21" s="23">
         <f>IF(COUNTIF(گوگل!$B$2:$B$44,$C21)&gt;0, INDEX(گوگل!G$2:G$44,MATCH($C21,گوگل!$B$2:$B$44,0)),0)</f>
@@ -10571,7 +10571,7 @@
       </c>
       <c r="K21" s="23">
         <f>IF(COUNTIF(گوگل!$B$2:$B$44,$C21)&gt;0, INDEX(گوگل!I$2:I$44,MATCH($C21,گوگل!$B$2:$B$44,0)),0)</f>
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="L21" s="23">
         <f>IF(COUNTIF(گوگل!$B$2:$B$44,$C21)&gt;0, INDEX(گوگل!J$2:J$44,MATCH($C21,گوگل!$B$2:$B$44,0)),0)</f>
@@ -10579,7 +10579,7 @@
       </c>
       <c r="M21" s="23">
         <f>IF(COUNTIF(گوگل!$B$2:$B$44,$C21)&gt;0, INDEX(گوگل!K$2:K$44,MATCH($C21,گوگل!$B$2:$B$44,0)),0)</f>
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="N21" s="23">
         <f>IF(COUNTIF(گوگل!$B$2:$B$44,$C21)&gt;0, INDEX(گوگل!L$2:L$44,MATCH($C21,گوگل!$B$2:$B$44,0)),0)</f>
@@ -10587,19 +10587,19 @@
       </c>
       <c r="O21" s="26">
         <f>IF(COUNTIF(درصد!B$2:B$44,C21)&gt;0, INDEX(درصد!M$2:M$44,MATCH(C21,درصد!B$2:B$44,0)),0)</f>
-        <v>33.333333333333329</v>
+        <v>36.666666666666664</v>
       </c>
     </row>
     <row r="22" spans="1:15" ht="18.600000000000001" x14ac:dyDescent="0.6">
       <c r="A22" s="24">
         <f t="shared" si="0"/>
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B22" s="28" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="C22" s="21">
-        <v>1014</v>
+        <v>1005</v>
       </c>
       <c r="D22" s="23" t="str">
         <f>IF(COUNTIF(گوگل!B$2:B$44,C22)=1,"حاضر","غایب")</f>
@@ -10615,7 +10615,7 @@
       </c>
       <c r="G22" s="23">
         <f>IF(COUNTIF(گوگل!$B$2:$B$44,$C22)&gt;0, INDEX(گوگل!E$2:E$44,MATCH($C22,گوگل!$B$2:$B$44,0)),0)</f>
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="H22" s="23">
         <f>IF(COUNTIF(گوگل!$B$2:$B$44,$C22)&gt;0, INDEX(گوگل!F$2:F$44,MATCH($C22,گوگل!$B$2:$B$44,0)),0)</f>
@@ -10623,15 +10623,15 @@
       </c>
       <c r="I22" s="23">
         <f>IF(COUNTIF(گوگل!$B$2:$B$44,$C22)&gt;0, INDEX(گوگل!G$2:G$44,MATCH($C22,گوگل!$B$2:$B$44,0)),0)</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J22" s="23">
         <f>IF(COUNTIF(گوگل!$B$2:$B$44,$C22)&gt;0, INDEX(گوگل!H$2:H$44,MATCH($C22,گوگل!$B$2:$B$44,0)),0)</f>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="K22" s="23">
         <f>IF(COUNTIF(گوگل!$B$2:$B$44,$C22)&gt;0, INDEX(گوگل!I$2:I$44,MATCH($C22,گوگل!$B$2:$B$44,0)),0)</f>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L22" s="23">
         <f>IF(COUNTIF(گوگل!$B$2:$B$44,$C22)&gt;0, INDEX(گوگل!J$2:J$44,MATCH($C22,گوگل!$B$2:$B$44,0)),0)</f>
@@ -10639,11 +10639,11 @@
       </c>
       <c r="M22" s="23">
         <f>IF(COUNTIF(گوگل!$B$2:$B$44,$C22)&gt;0, INDEX(گوگل!K$2:K$44,MATCH($C22,گوگل!$B$2:$B$44,0)),0)</f>
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="N22" s="23">
         <f>IF(COUNTIF(گوگل!$B$2:$B$44,$C22)&gt;0, INDEX(گوگل!L$2:L$44,MATCH($C22,گوگل!$B$2:$B$44,0)),0)</f>
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="O22" s="26">
         <f>IF(COUNTIF(درصد!B$2:B$44,C22)&gt;0, INDEX(درصد!M$2:M$44,MATCH(C22,درصد!B$2:B$44,0)),0)</f>
@@ -10653,13 +10653,13 @@
     <row r="23" spans="1:15" ht="18.600000000000001" x14ac:dyDescent="0.6">
       <c r="A23" s="24">
         <f t="shared" si="0"/>
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B23" s="28" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="C23" s="21">
-        <v>1001</v>
+        <v>1014</v>
       </c>
       <c r="D23" s="23" t="str">
         <f>IF(COUNTIF(گوگل!B$2:B$44,C23)=1,"حاضر","غایب")</f>
@@ -10667,7 +10667,7 @@
       </c>
       <c r="E23" s="23">
         <f>IF(COUNTIF(گوگل!$B$2:$B$44,$C23)&gt;0, INDEX(گوگل!C$2:C$44,MATCH($C23,گوگل!$B$2:$B$44,0)),0)</f>
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="F23" s="23">
         <f>IF(COUNTIF(گوگل!$B$2:$B$44,$C23)&gt;0, INDEX(گوگل!D$2:D$44,MATCH($C23,گوگل!$B$2:$B$44,0)),0)</f>
@@ -10679,11 +10679,11 @@
       </c>
       <c r="H23" s="23">
         <f>IF(COUNTIF(گوگل!$B$2:$B$44,$C23)&gt;0, INDEX(گوگل!F$2:F$44,MATCH($C23,گوگل!$B$2:$B$44,0)),0)</f>
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="I23" s="23">
         <f>IF(COUNTIF(گوگل!$B$2:$B$44,$C23)&gt;0, INDEX(گوگل!G$2:G$44,MATCH($C23,گوگل!$B$2:$B$44,0)),0)</f>
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="J23" s="23">
         <f>IF(COUNTIF(گوگل!$B$2:$B$44,$C23)&gt;0, INDEX(گوگل!H$2:H$44,MATCH($C23,گوگل!$B$2:$B$44,0)),0)</f>
@@ -10703,7 +10703,7 @@
       </c>
       <c r="N23" s="23">
         <f>IF(COUNTIF(گوگل!$B$2:$B$44,$C23)&gt;0, INDEX(گوگل!L$2:L$44,MATCH($C23,گوگل!$B$2:$B$44,0)),0)</f>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="O23" s="26">
         <f>IF(COUNTIF(درصد!B$2:B$44,C23)&gt;0, INDEX(درصد!M$2:M$44,MATCH(C23,درصد!B$2:B$44,0)),0)</f>
@@ -10713,13 +10713,13 @@
     <row r="24" spans="1:15" ht="18.600000000000001" x14ac:dyDescent="0.6">
       <c r="A24" s="24">
         <f t="shared" si="0"/>
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B24" s="28" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="C24" s="21">
-        <v>1010</v>
+        <v>1001</v>
       </c>
       <c r="D24" s="23" t="str">
         <f>IF(COUNTIF(گوگل!B$2:B$44,C24)=1,"حاضر","غایب")</f>
@@ -10731,7 +10731,7 @@
       </c>
       <c r="F24" s="23">
         <f>IF(COUNTIF(گوگل!$B$2:$B$44,$C24)&gt;0, INDEX(گوگل!D$2:D$44,MATCH($C24,گوگل!$B$2:$B$44,0)),0)</f>
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="G24" s="23">
         <f>IF(COUNTIF(گوگل!$B$2:$B$44,$C24)&gt;0, INDEX(گوگل!E$2:E$44,MATCH($C24,گوگل!$B$2:$B$44,0)),0)</f>
@@ -10739,11 +10739,11 @@
       </c>
       <c r="H24" s="23">
         <f>IF(COUNTIF(گوگل!$B$2:$B$44,$C24)&gt;0, INDEX(گوگل!F$2:F$44,MATCH($C24,گوگل!$B$2:$B$44,0)),0)</f>
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="I24" s="23">
         <f>IF(COUNTIF(گوگل!$B$2:$B$44,$C24)&gt;0, INDEX(گوگل!G$2:G$44,MATCH($C24,گوگل!$B$2:$B$44,0)),0)</f>
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="J24" s="23">
         <f>IF(COUNTIF(گوگل!$B$2:$B$44,$C24)&gt;0, INDEX(گوگل!H$2:H$44,MATCH($C24,گوگل!$B$2:$B$44,0)),0)</f>
@@ -10751,19 +10751,19 @@
       </c>
       <c r="K24" s="23">
         <f>IF(COUNTIF(گوگل!$B$2:$B$44,$C24)&gt;0, INDEX(گوگل!I$2:I$44,MATCH($C24,گوگل!$B$2:$B$44,0)),0)</f>
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="L24" s="23">
         <f>IF(COUNTIF(گوگل!$B$2:$B$44,$C24)&gt;0, INDEX(گوگل!J$2:J$44,MATCH($C24,گوگل!$B$2:$B$44,0)),0)</f>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="M24" s="23">
         <f>IF(COUNTIF(گوگل!$B$2:$B$44,$C24)&gt;0, INDEX(گوگل!K$2:K$44,MATCH($C24,گوگل!$B$2:$B$44,0)),0)</f>
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="N24" s="23">
         <f>IF(COUNTIF(گوگل!$B$2:$B$44,$C24)&gt;0, INDEX(گوگل!L$2:L$44,MATCH($C24,گوگل!$B$2:$B$44,0)),0)</f>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="O24" s="26">
         <f>IF(COUNTIF(درصد!B$2:B$44,C24)&gt;0, INDEX(درصد!M$2:M$44,MATCH(C24,درصد!B$2:B$44,0)),0)</f>
